--- a/pred_ohlcv/54_21/2020-01-22 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 VALOR ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-7248.958546152317</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7258.535046152318</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-7258.535046152318</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-11332.23623253481</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-11335.58633253481</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-10629.18026042855</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-18060.71936042855</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-22098.89006042855</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-21043.42580769218</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-25791.10170769218</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-26989.25650769218</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-26749.97110769218</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-26749.97110769218</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-32113.45730769218</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-52056.48440769218</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-52059.89270769218</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-52059.89270769218</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-52947.62800769218</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-86607.3106614679</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-80206.0399614679</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-80206.0399614679</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-80206.0399614679</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-80707.2983614679</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-80707.2983614679</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 VALOR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 VALOR ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-7248.958546152317</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-7258.535046152318</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-7258.535046152318</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-11332.23623253481</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-11335.58633253481</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-10629.18026042855</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-18060.71936042855</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-22098.89006042855</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-21043.42580769218</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-22469.74910769218</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-22452.87300769218</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-25791.10170769218</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-25791.10170769218</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-25791.10170769218</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-26749.97110769218</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-26749.97110769218</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-26728.97530769218</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-32113.45730769218</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-52056.48440769218</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-52052.24570769218</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-52059.89270769218</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-52059.89270769218</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-52059.89270769218</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-52947.62800769218</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-80206.0399614679</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-78704.0399614679</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-78704.0399614679</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-80707.2983614679</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
